--- a/biology/Botanique/Garcinia_densivenia/Garcinia_densivenia.xlsx
+++ b/biology/Botanique/Garcinia_densivenia/Garcinia_densivenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Garcinia densivenia est une espèce de plantes à fleurs de la famille des Clusiaceae et du genre Garcinia, endémique du Cameroun.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste (ou arbre) de 4 à 15 m de haut avec des branches angulaires.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve en forêt riveraine, ripisylve, à 200 m. d'alt.
 </t>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, relativement rare, l'espèce a été observée d'abord par Georg August Zenker dans le sud, près de Bipindi, en 1901 et 1903, puis par d'autres collecteurs dans la réserve de faune de Douala-Edéa (région du Littoral), également dans le sud-ouest, puis plus récemment (2004) à nouveau dans le sud, notamment sur l'île de Dipikar[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, relativement rare, l'espèce a été observée d'abord par Georg August Zenker dans le sud, près de Bipindi, en 1901 et 1903, puis par d'autres collecteurs dans la réserve de faune de Douala-Edéa (région du Littoral), également dans le sud-ouest, puis plus récemment (2004) à nouveau dans le sud, notamment sur l'île de Dipikar.
 </t>
         </is>
       </c>
